--- a/PREGAME/1.ELICITACION/1.3 Historia de Usuario/G7_Historias de Usuario_V2.xlsx
+++ b/PREGAME/1.ELICITACION/1.3 Historia de Usuario/G7_Historias de Usuario_V2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DYNABOOK\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trejo\Desktop\Semestre VII\Analisis y diseño\Analisis repo\_23305_G7_ADS\PREGAME\1.ELICITACION\1.3 Historia de Usuario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D5C6FB8-DDEA-4D07-9421-40226809D028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08FC24CD-728D-45E3-9968-8A155598D32D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formato descripción HU" sheetId="1" r:id="rId1"/>
@@ -788,50 +788,50 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1170,8 +1170,8 @@
   </sheetPr>
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="30" zoomScaleNormal="30" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -1187,13 +1187,13 @@
     <col min="16" max="26" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="14.45">
+    <row r="1" spans="2:15">
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="2"/>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="2:15" ht="14.45">
+    <row r="2" spans="2:15">
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="2"/>
@@ -1203,21 +1203,21 @@
       <c r="B3" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-    </row>
-    <row r="4" spans="2:15" ht="14.45">
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+    </row>
+    <row r="4" spans="2:15">
       <c r="H4" s="4"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -1300,7 +1300,7 @@
         <v>22</v>
       </c>
       <c r="L6" s="30" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="M6" s="32" t="s">
         <v>24</v>
@@ -1344,7 +1344,7 @@
         <v>22</v>
       </c>
       <c r="L7" s="30" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="M7" s="32" t="s">
         <v>33</v>
@@ -1388,7 +1388,7 @@
         <v>42</v>
       </c>
       <c r="L8" s="30" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="M8" s="30" t="s">
         <v>44</v>
@@ -1430,7 +1430,7 @@
         <v>42</v>
       </c>
       <c r="L9" s="30" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="M9" s="30" t="s">
         <v>50</v>
@@ -1474,7 +1474,7 @@
         <v>42</v>
       </c>
       <c r="L10" s="30" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="M10" s="30" t="s">
         <v>59</v>
@@ -1518,7 +1518,7 @@
         <v>69</v>
       </c>
       <c r="L11" s="30" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="M11" s="32" t="s">
         <v>70</v>
@@ -7561,8 +7561,8 @@
     <mergeCell ref="B3:O3"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
-  <conditionalFormatting sqref="L17:L19 L6:L9 L11:L12">
-    <cfRule type="colorScale" priority="3">
+  <conditionalFormatting sqref="L13:L16 L10">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7581,8 +7581,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L13:L16 L10">
-    <cfRule type="colorScale" priority="10">
+  <conditionalFormatting sqref="L17:L19 L6:L9 L11:L12">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7627,36 +7627,36 @@
   <sheetData>
     <row r="2" spans="2:16" ht="15" hidden="1" customHeight="1"/>
     <row r="3" spans="2:16" ht="15" hidden="1" customHeight="1"/>
-    <row r="4" spans="2:16" ht="14.45" hidden="1">
+    <row r="4" spans="2:16" hidden="1">
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="2:16" ht="14.45" hidden="1">
+    <row r="5" spans="2:16" hidden="1">
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="2:16" ht="39.75" customHeight="1">
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="46"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="51"/>
     </row>
     <row r="7" spans="2:16" ht="9.75" customHeight="1">
       <c r="C7" s="11"/>
@@ -7696,15 +7696,15 @@
         <v>1</v>
       </c>
       <c r="D9" s="13"/>
-      <c r="E9" s="38" t="s">
+      <c r="E9" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="F9" s="46"/>
+      <c r="F9" s="51"/>
       <c r="G9" s="13"/>
-      <c r="H9" s="38" t="s">
+      <c r="H9" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="46"/>
+      <c r="I9" s="51"/>
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
       <c r="L9" s="14"/>
@@ -7719,17 +7719,17 @@
         <v>15</v>
       </c>
       <c r="D10" s="16"/>
-      <c r="E10" s="39" t="str">
+      <c r="E10" s="53" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O19,5,0)</f>
         <v xml:space="preserve">Cliente </v>
       </c>
-      <c r="F10" s="46"/>
+      <c r="F10" s="51"/>
       <c r="G10" s="17"/>
-      <c r="H10" s="39" t="str">
+      <c r="H10" s="53" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O259,11,0)</f>
-        <v>En proceso</v>
-      </c>
-      <c r="I10" s="46"/>
+        <v>Terminado</v>
+      </c>
+      <c r="I10" s="51"/>
       <c r="J10" s="17"/>
       <c r="K10" s="14"/>
       <c r="L10" s="14"/>
@@ -7761,15 +7761,15 @@
         <v>77</v>
       </c>
       <c r="D12" s="16"/>
-      <c r="E12" s="38" t="s">
+      <c r="E12" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="46"/>
+      <c r="F12" s="51"/>
       <c r="G12" s="17"/>
-      <c r="H12" s="38" t="s">
+      <c r="H12" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="I12" s="46"/>
+      <c r="I12" s="51"/>
       <c r="J12" s="17"/>
       <c r="K12" s="19"/>
       <c r="L12" s="19"/>
@@ -7785,17 +7785,17 @@
         <v>5</v>
       </c>
       <c r="D13" s="16"/>
-      <c r="E13" s="39" t="str">
+      <c r="E13" s="53" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O19,10,0)</f>
         <v xml:space="preserve">Media </v>
       </c>
-      <c r="F13" s="46"/>
+      <c r="F13" s="51"/>
       <c r="G13" s="17"/>
-      <c r="H13" s="39" t="str">
+      <c r="H13" s="53" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O19,7,0)</f>
         <v>Trejo Alex</v>
       </c>
-      <c r="I13" s="46"/>
+      <c r="I13" s="51"/>
       <c r="J13" s="17"/>
       <c r="K13" s="19"/>
       <c r="L13" s="19"/>
@@ -7823,68 +7823,68 @@
     </row>
     <row r="15" spans="2:16" ht="19.5" customHeight="1">
       <c r="B15" s="28"/>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="D15" s="43" t="str">
+      <c r="D15" s="54" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O19,3,0)</f>
         <v>El sistema debe registrar una cuenta</v>
       </c>
-      <c r="E15" s="47"/>
+      <c r="E15" s="40"/>
       <c r="F15" s="14"/>
-      <c r="G15" s="35" t="s">
+      <c r="G15" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="H15" s="43" t="str">
+      <c r="H15" s="54" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O19,4,0)</f>
         <v xml:space="preserve">Para que el cliente pueda acceder al sistema y realizar reservas de citas médicas	</v>
       </c>
-      <c r="I15" s="48"/>
-      <c r="J15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="40"/>
       <c r="K15" s="14"/>
-      <c r="L15" s="35" t="s">
+      <c r="L15" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="M15" s="36" t="str">
+      <c r="M15" s="46" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O19,6,0)</f>
         <v>Completar formulario con nombre, correo, paciente, edad, etc. El sistema valida formato y unicidad de datos, y confirma el registro.</v>
       </c>
-      <c r="N15" s="48"/>
-      <c r="O15" s="47"/>
+      <c r="N15" s="47"/>
+      <c r="O15" s="40"/>
       <c r="P15" s="29"/>
     </row>
     <row r="16" spans="2:16" ht="19.5" customHeight="1">
       <c r="B16" s="28"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="51"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="45"/>
       <c r="F16" s="14"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="51"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="45"/>
       <c r="K16" s="14"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="50"/>
-      <c r="N16" s="44"/>
-      <c r="O16" s="51"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="45"/>
       <c r="P16" s="29"/>
     </row>
     <row r="17" spans="2:16" ht="19.5" customHeight="1">
       <c r="B17" s="28"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="54"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="42"/>
       <c r="F17" s="14"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="55"/>
-      <c r="J17" s="54"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="42"/>
       <c r="K17" s="14"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="53"/>
-      <c r="N17" s="55"/>
-      <c r="O17" s="54"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="48"/>
+      <c r="O17" s="42"/>
       <c r="P17" s="29"/>
     </row>
     <row r="18" spans="2:16" ht="9.75" customHeight="1">
@@ -7906,11 +7906,11 @@
     </row>
     <row r="19" spans="2:16" ht="19.5" customHeight="1">
       <c r="B19" s="28"/>
-      <c r="C19" s="40" t="s">
+      <c r="C19" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="D19" s="47"/>
-      <c r="E19" s="37" t="str">
+      <c r="D19" s="40"/>
+      <c r="E19" s="55" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O19,14,0)</f>
         <v>Registro de Cuenta</v>
       </c>
@@ -7928,8 +7928,8 @@
     </row>
     <row r="20" spans="2:16" ht="19.5" customHeight="1">
       <c r="B20" s="28"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="54"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="42"/>
       <c r="E20" s="58"/>
       <c r="F20" s="59"/>
       <c r="G20" s="59"/>
@@ -7962,63 +7962,63 @@
     </row>
     <row r="22" spans="2:16" ht="19.5" customHeight="1">
       <c r="B22" s="28"/>
-      <c r="C22" s="41" t="s">
+      <c r="C22" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="D22" s="47"/>
-      <c r="E22" s="36" t="str">
+      <c r="D22" s="40"/>
+      <c r="E22" s="46" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O19,12,0)</f>
         <v>El sistema permite crear cuenta si todos los campos son válidos. Muestra mensaje de éxito y redirige al login.</v>
       </c>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="40"/>
       <c r="I22" s="14"/>
-      <c r="J22" s="41" t="s">
+      <c r="J22" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="K22" s="47"/>
-      <c r="L22" s="36" t="str">
+      <c r="K22" s="40"/>
+      <c r="L22" s="46" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O19,13,0)</f>
         <v>Las credenciales de admins y especialistas se entregan manualmente.</v>
       </c>
-      <c r="M22" s="48"/>
-      <c r="N22" s="48"/>
-      <c r="O22" s="47"/>
+      <c r="M22" s="47"/>
+      <c r="N22" s="47"/>
+      <c r="O22" s="40"/>
       <c r="P22" s="29"/>
     </row>
     <row r="23" spans="2:16" ht="19.5" customHeight="1">
       <c r="B23" s="28"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="51"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="45"/>
       <c r="I23" s="14"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="51"/>
-      <c r="L23" s="50"/>
-      <c r="M23" s="44"/>
-      <c r="N23" s="44"/>
-      <c r="O23" s="51"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="45"/>
       <c r="P23" s="29"/>
     </row>
     <row r="24" spans="2:16" ht="19.5" customHeight="1">
       <c r="B24" s="28"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="54"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="42"/>
       <c r="I24" s="14"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="54"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="55"/>
-      <c r="N24" s="55"/>
-      <c r="O24" s="54"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="48"/>
+      <c r="N24" s="48"/>
+      <c r="O24" s="42"/>
       <c r="P24" s="29"/>
     </row>
     <row r="25" spans="2:16" ht="9.75" customHeight="1">
@@ -9035,6 +9035,11 @@
     <row r="1020" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="L15:L17"/>
+    <mergeCell ref="M15:O17"/>
+    <mergeCell ref="E19:O20"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
     <mergeCell ref="C15:C17"/>
     <mergeCell ref="C19:D20"/>
     <mergeCell ref="C22:D24"/>
@@ -9051,11 +9056,6 @@
     <mergeCell ref="D15:E17"/>
     <mergeCell ref="G15:G17"/>
     <mergeCell ref="H15:J17"/>
-    <mergeCell ref="L15:L17"/>
-    <mergeCell ref="M15:O17"/>
-    <mergeCell ref="E19:O20"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:I11">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
@@ -9099,6 +9099,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100EDB39E34F5A9B445B025C05B2A05D030" ma:contentTypeVersion="14" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="a6849209fce37b8b9bc9b12ce7e99c9f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f1f31ffb-9912-4459-99c8-b26e82094b51" xmlns:ns4="ce621958-37b1-43fe-a1f1-1aad67996a88" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9c809f1de208edb1f7f17b3027eecd4e" ns3:_="" ns4:_="">
     <xsd:import namespace="f1f31ffb-9912-4459-99c8-b26e82094b51"/>
@@ -9325,23 +9334,39 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4796AFB0-B65B-43EC-84D6-E6170CB29F7C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4796AFB0-B65B-43EC-84D6-E6170CB29F7C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f1f31ffb-9912-4459-99c8-b26e82094b51"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFCA0F49-E373-4116-B0EA-5CF9151CB24E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A27D8618-BC5A-4AFD-ACEC-6D90E682B5FD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A27D8618-BC5A-4AFD-ACEC-6D90E682B5FD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFCA0F49-E373-4116-B0EA-5CF9151CB24E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f1f31ffb-9912-4459-99c8-b26e82094b51"/>
+    <ds:schemaRef ds:uri="ce621958-37b1-43fe-a1f1-1aad67996a88"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>